--- a/Code/Results/Cases/Case_4_223/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_223/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9795941157913163</v>
+        <v>1.020187938760651</v>
       </c>
       <c r="D2">
-        <v>1.00158503983354</v>
+        <v>1.024633669955879</v>
       </c>
       <c r="E2">
-        <v>0.9879144223194691</v>
+        <v>1.023805500138709</v>
       </c>
       <c r="F2">
-        <v>0.9553322672443634</v>
+        <v>1.018597342599396</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035364508478527</v>
+        <v>1.027414560603013</v>
       </c>
       <c r="J2">
-        <v>1.002402777710937</v>
+        <v>1.025386462933698</v>
       </c>
       <c r="K2">
-        <v>1.013022336614648</v>
+        <v>1.027461597882946</v>
       </c>
       <c r="L2">
-        <v>0.9995447363741331</v>
+        <v>1.026635858678833</v>
       </c>
       <c r="M2">
-        <v>0.9674510819567711</v>
+        <v>1.021443085277686</v>
       </c>
       <c r="N2">
-        <v>1.003826304632492</v>
+        <v>1.026842629324535</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9852079857879581</v>
+        <v>1.021323982055728</v>
       </c>
       <c r="D3">
-        <v>1.005469748532067</v>
+        <v>1.025430354192305</v>
       </c>
       <c r="E3">
-        <v>0.9929916373941412</v>
+        <v>1.02488881807928</v>
       </c>
       <c r="F3">
-        <v>0.9637928568028954</v>
+        <v>1.020376162297516</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036528035455757</v>
+        <v>1.027575656475209</v>
       </c>
       <c r="J3">
-        <v>1.006110182667692</v>
+        <v>1.026158611915067</v>
       </c>
       <c r="K3">
-        <v>1.016033118043127</v>
+        <v>1.028065443163231</v>
       </c>
       <c r="L3">
-        <v>1.003714983955726</v>
+        <v>1.0275253808059</v>
       </c>
       <c r="M3">
-        <v>0.9749109808390209</v>
+        <v>1.023025071810181</v>
       </c>
       <c r="N3">
-        <v>1.007538974529532</v>
+        <v>1.027615874846024</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9887446745124845</v>
+        <v>1.022058477354735</v>
       </c>
       <c r="D4">
-        <v>1.007919225458307</v>
+        <v>1.025945150521496</v>
       </c>
       <c r="E4">
-        <v>0.9961957948308499</v>
+        <v>1.025589576627337</v>
       </c>
       <c r="F4">
-        <v>0.9691071813073221</v>
+        <v>1.021526318380475</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037248558583652</v>
+        <v>1.027678228622584</v>
       </c>
       <c r="J4">
-        <v>1.008440741501773</v>
+        <v>1.02665715030907</v>
       </c>
       <c r="K4">
-        <v>1.017923002860796</v>
+        <v>1.028454811698976</v>
       </c>
       <c r="L4">
-        <v>1.006340351142106</v>
+        <v>1.028100156471565</v>
       </c>
       <c r="M4">
-        <v>0.9795933319288898</v>
+        <v>1.024047445146677</v>
       </c>
       <c r="N4">
-        <v>1.009872843024475</v>
+        <v>1.02811512122173</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9902096635515427</v>
+        <v>1.022367118116987</v>
       </c>
       <c r="D5">
-        <v>1.008934285630544</v>
+        <v>1.026161401477948</v>
       </c>
       <c r="E5">
-        <v>0.9975243308960203</v>
+        <v>1.025884124811332</v>
       </c>
       <c r="F5">
-        <v>0.9713052557106189</v>
+        <v>1.02200964818018</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037543970168499</v>
+        <v>1.027720951002829</v>
       </c>
       <c r="J5">
-        <v>1.009404883297113</v>
+        <v>1.026866475899014</v>
       </c>
       <c r="K5">
-        <v>1.018704138341193</v>
+        <v>1.028618177825923</v>
       </c>
       <c r="L5">
-        <v>1.007427374298112</v>
+        <v>1.028341601491726</v>
       </c>
       <c r="M5">
-        <v>0.9815291464769074</v>
+        <v>1.024476953683914</v>
       </c>
       <c r="N5">
-        <v>1.010838354011754</v>
+        <v>1.028324744078021</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9904543920987534</v>
+        <v>1.022418932066561</v>
       </c>
       <c r="D6">
-        <v>1.009103875169755</v>
+        <v>1.026197701057487</v>
       </c>
       <c r="E6">
-        <v>0.9977463394316818</v>
+        <v>1.025933577834675</v>
       </c>
       <c r="F6">
-        <v>0.9716722700870052</v>
+        <v>1.022090790183684</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037593138393594</v>
+        <v>1.027728100892114</v>
       </c>
       <c r="J6">
-        <v>1.009565871288859</v>
+        <v>1.026901607396962</v>
       </c>
       <c r="K6">
-        <v>1.01883452641189</v>
+        <v>1.028645588726456</v>
       </c>
       <c r="L6">
-        <v>1.007608934485097</v>
+        <v>1.028382130048764</v>
       </c>
       <c r="M6">
-        <v>0.9818523187553768</v>
+        <v>1.024549052879945</v>
       </c>
       <c r="N6">
-        <v>1.010999570624913</v>
+        <v>1.028359925466726</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9887643341516228</v>
+        <v>1.022062601978589</v>
       </c>
       <c r="D7">
-        <v>1.007932845656164</v>
+        <v>1.025948040741922</v>
       </c>
       <c r="E7">
-        <v>0.9962136182711268</v>
+        <v>1.025593512591251</v>
       </c>
       <c r="F7">
-        <v>0.9691366909199447</v>
+        <v>1.021532777414131</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037252535026344</v>
+        <v>1.027678801048376</v>
       </c>
       <c r="J7">
-        <v>1.008453684863974</v>
+        <v>1.026659948346986</v>
       </c>
       <c r="K7">
-        <v>1.017933492235457</v>
+        <v>1.028456995878492</v>
       </c>
       <c r="L7">
-        <v>1.006354940518233</v>
+        <v>1.028103383418532</v>
       </c>
       <c r="M7">
-        <v>0.9796193241412388</v>
+        <v>1.0240531854179</v>
       </c>
       <c r="N7">
-        <v>1.009885804767735</v>
+        <v>1.02811792323318</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9815118962175867</v>
+        <v>1.020571995940502</v>
       </c>
       <c r="D8">
-        <v>1.002911603996068</v>
+        <v>1.02490306105021</v>
       </c>
       <c r="E8">
-        <v>0.9896476763174988</v>
+        <v>1.024171659455372</v>
       </c>
       <c r="F8">
-        <v>0.9582261894100241</v>
+        <v>1.019198686908034</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035764584278892</v>
+        <v>1.027469349181955</v>
       </c>
       <c r="J8">
-        <v>1.003670338479143</v>
+        <v>1.025647641867842</v>
       </c>
       <c r="K8">
-        <v>1.014052279672454</v>
+        <v>1.027665952442845</v>
       </c>
       <c r="L8">
-        <v>1.000969726768702</v>
+        <v>1.026936644635275</v>
       </c>
       <c r="M8">
-        <v>0.9700034093496548</v>
+        <v>1.021977994831621</v>
       </c>
       <c r="N8">
-        <v>1.00509566548238</v>
+        <v>1.027104179162723</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9679430762444131</v>
+        <v>1.017940633590616</v>
       </c>
       <c r="D9">
-        <v>0.9935390764765895</v>
+        <v>1.023056179388646</v>
       </c>
       <c r="E9">
-        <v>0.977410222180741</v>
+        <v>1.021664387967593</v>
       </c>
       <c r="F9">
-        <v>0.9376582376904252</v>
+        <v>1.015078697447956</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032882463659409</v>
+        <v>1.027087482582151</v>
       </c>
       <c r="J9">
-        <v>0.9946809462300193</v>
+        <v>1.023855368238419</v>
       </c>
       <c r="K9">
-        <v>1.00673785469618</v>
+        <v>1.026261567901802</v>
       </c>
       <c r="L9">
-        <v>0.9908807534737748</v>
+        <v>1.024874450648534</v>
       </c>
       <c r="M9">
-        <v>0.9518508027534067</v>
+        <v>1.018311068447861</v>
       </c>
       <c r="N9">
-        <v>0.9960935072651653</v>
+        <v>1.025309360299169</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9582811656534349</v>
+        <v>1.016183040366555</v>
       </c>
       <c r="D10">
-        <v>0.9868870487483664</v>
+        <v>1.02182116696458</v>
       </c>
       <c r="E10">
-        <v>0.9687316155475942</v>
+        <v>1.019991537887534</v>
       </c>
       <c r="F10">
-        <v>0.9228611175786047</v>
+        <v>1.012326694637258</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030766863623431</v>
+        <v>1.0268242883484</v>
       </c>
       <c r="J10">
-        <v>0.9882536806744325</v>
+        <v>1.022654710536264</v>
       </c>
       <c r="K10">
-        <v>1.001497167741682</v>
+        <v>1.025318201698461</v>
       </c>
       <c r="L10">
-        <v>0.9836893516882282</v>
+        <v>1.02349532509878</v>
       </c>
       <c r="M10">
-        <v>0.9387783414983731</v>
+        <v>1.01585906365727</v>
       </c>
       <c r="N10">
-        <v>0.9896571142552719</v>
+        <v>1.024106997525361</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9539292483456729</v>
+        <v>1.015421148261589</v>
       </c>
       <c r="D11">
-        <v>0.9838977278633342</v>
+        <v>1.021285486330238</v>
       </c>
       <c r="E11">
-        <v>0.9648317844090386</v>
+        <v>1.019266827364141</v>
       </c>
       <c r="F11">
-        <v>0.9161478353923039</v>
+        <v>1.011133641296108</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029799734317207</v>
+        <v>1.026708273687992</v>
       </c>
       <c r="J11">
-        <v>0.985352672918864</v>
+        <v>1.022133407227809</v>
       </c>
       <c r="K11">
-        <v>0.9991298351802169</v>
+        <v>1.024908010140835</v>
       </c>
       <c r="L11">
-        <v>0.9804488601444572</v>
+        <v>1.022897092606284</v>
       </c>
       <c r="M11">
-        <v>0.9328455461334619</v>
+        <v>1.014795444569322</v>
       </c>
       <c r="N11">
-        <v>0.9867519867359401</v>
+        <v>1.023584953906413</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9522853205256643</v>
+        <v>1.015138017479179</v>
       </c>
       <c r="D12">
-        <v>0.982769708932247</v>
+        <v>1.021086372231881</v>
       </c>
       <c r="E12">
-        <v>0.9633600850776313</v>
+        <v>1.018997581428883</v>
       </c>
       <c r="F12">
-        <v>0.9136033869835436</v>
+        <v>1.010690263161104</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029432339998518</v>
+        <v>1.026664872225773</v>
       </c>
       <c r="J12">
-        <v>0.984255927315817</v>
+        <v>1.021939557576338</v>
       </c>
       <c r="K12">
-        <v>0.998234630360572</v>
+        <v>1.024755388579578</v>
       </c>
       <c r="L12">
-        <v>0.979224603485029</v>
+        <v>1.022674720270383</v>
       </c>
       <c r="M12">
-        <v>0.9305967316318327</v>
+        <v>1.014400075357693</v>
       </c>
       <c r="N12">
-        <v>0.9856536836283384</v>
+        <v>1.023390828966202</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.952639227476536</v>
+        <v>1.015198755938857</v>
       </c>
       <c r="D13">
-        <v>0.9830124939409239</v>
+        <v>1.0211290891706</v>
       </c>
       <c r="E13">
-        <v>0.9636768475861384</v>
+        <v>1.019055338183173</v>
       </c>
       <c r="F13">
-        <v>0.9141515659979594</v>
+        <v>1.010785379651117</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029511525060449</v>
+        <v>1.026674195952778</v>
       </c>
       <c r="J13">
-        <v>0.9844920764644171</v>
+        <v>1.021981148726106</v>
       </c>
       <c r="K13">
-        <v>0.9984273928809945</v>
+        <v>1.024788138130093</v>
       </c>
       <c r="L13">
-        <v>0.9794881701137068</v>
+        <v>1.02272242727091</v>
       </c>
       <c r="M13">
-        <v>0.9310812252463809</v>
+        <v>1.014484896857539</v>
       </c>
       <c r="N13">
-        <v>0.9858901681358162</v>
+        <v>1.023432479180174</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9537939337648742</v>
+        <v>1.015397747257968</v>
       </c>
       <c r="D14">
-        <v>0.9838048535426424</v>
+        <v>1.021269030329615</v>
       </c>
       <c r="E14">
-        <v>0.9647106163165898</v>
+        <v>1.019244572573374</v>
       </c>
       <c r="F14">
-        <v>0.9159385781503312</v>
+        <v>1.011096996180705</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029769534876445</v>
+        <v>1.026704692404766</v>
       </c>
       <c r="J14">
-        <v>0.9852624159933723</v>
+        <v>1.02211738794301</v>
       </c>
       <c r="K14">
-        <v>0.9990561681329382</v>
+        <v>1.024895399670423</v>
       </c>
       <c r="L14">
-        <v>0.9803480926440457</v>
+        <v>1.022878714562568</v>
       </c>
       <c r="M14">
-        <v>0.9326606050584921</v>
+        <v>1.014762769280143</v>
       </c>
       <c r="N14">
-        <v>0.9866616016352614</v>
+        <v>1.023568911872392</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9545016824824399</v>
+        <v>1.015520335027378</v>
       </c>
       <c r="D15">
-        <v>0.9842906723300691</v>
+        <v>1.021355234306054</v>
       </c>
       <c r="E15">
-        <v>0.9653444328955241</v>
+        <v>1.019361158598693</v>
       </c>
       <c r="F15">
-        <v>0.9170327217144374</v>
+        <v>1.011288963234535</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029927406408286</v>
+        <v>1.026723441387722</v>
       </c>
       <c r="J15">
-        <v>0.9857344589895399</v>
+        <v>1.022201300937905</v>
       </c>
       <c r="K15">
-        <v>0.9994414377150226</v>
+        <v>1.024961452790124</v>
       </c>
       <c r="L15">
-        <v>0.9808751398612366</v>
+        <v>1.022974986756385</v>
       </c>
       <c r="M15">
-        <v>0.9336275998929312</v>
+        <v>1.014933936412393</v>
       </c>
       <c r="N15">
-        <v>0.9871343149866276</v>
+        <v>1.023652944033365</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9585662652552824</v>
+        <v>1.016233586581794</v>
       </c>
       <c r="D16">
-        <v>0.9870830385979532</v>
+        <v>1.021856698985821</v>
       </c>
       <c r="E16">
-        <v>0.968987294986105</v>
+        <v>1.020039626813253</v>
       </c>
       <c r="F16">
-        <v>0.9232998091345423</v>
+        <v>1.012405842763617</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030829932698845</v>
+        <v>1.026831944630358</v>
       </c>
       <c r="J16">
-        <v>0.988443605188653</v>
+        <v>1.022689277790365</v>
       </c>
       <c r="K16">
-        <v>1.001652119486203</v>
+        <v>1.025345388646067</v>
       </c>
       <c r="L16">
-        <v>0.9839016154481107</v>
+        <v>1.023535005222472</v>
       </c>
       <c r="M16">
-        <v>0.9391659990415792</v>
+        <v>1.01592961194314</v>
       </c>
       <c r="N16">
-        <v>0.9898473084840871</v>
+        <v>1.024141613868927</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9610693846733858</v>
+        <v>1.016680762351779</v>
       </c>
       <c r="D17">
-        <v>0.9888045882416051</v>
+        <v>1.022171009334034</v>
       </c>
       <c r="E17">
-        <v>0.9712331587158518</v>
+        <v>1.020465114890534</v>
       </c>
       <c r="F17">
-        <v>0.9271458348363973</v>
+        <v>1.013106043730899</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031382066827025</v>
+        <v>1.026899456709335</v>
       </c>
       <c r="J17">
-        <v>0.9901104244801392</v>
+        <v>1.022994993386448</v>
       </c>
       <c r="K17">
-        <v>1.00301180297073</v>
+        <v>1.02558576313733</v>
       </c>
       <c r="L17">
-        <v>0.9857651028625296</v>
+        <v>1.023886003851146</v>
       </c>
       <c r="M17">
-        <v>0.9425643972520749</v>
+        <v>1.016553660849913</v>
       </c>
       <c r="N17">
-        <v>0.9915164948501541</v>
+        <v>1.024447763616223</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9625133371369381</v>
+        <v>1.016941511351267</v>
       </c>
       <c r="D18">
-        <v>0.9897983214315788</v>
+        <v>1.022354253336047</v>
       </c>
       <c r="E18">
-        <v>0.9725295709156112</v>
+        <v>1.020713260786868</v>
       </c>
       <c r="F18">
-        <v>0.9293599914115455</v>
+        <v>1.013514323108861</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031699226678666</v>
+        <v>1.026938637618715</v>
       </c>
       <c r="J18">
-        <v>0.9910713782706108</v>
+        <v>1.023173176187349</v>
       </c>
       <c r="K18">
-        <v>1.003795503731246</v>
+        <v>1.025725804845126</v>
       </c>
       <c r="L18">
-        <v>0.9868399479643934</v>
+        <v>1.024090633119825</v>
       </c>
       <c r="M18">
-        <v>0.9445206618196376</v>
+        <v>1.016917476876867</v>
       </c>
       <c r="N18">
-        <v>0.9924788133052307</v>
+        <v>1.024626199457139</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9630030223328707</v>
+        <v>1.01703040637841</v>
       </c>
       <c r="D19">
-        <v>0.9901354282873746</v>
+        <v>1.022416719937253</v>
       </c>
       <c r="E19">
-        <v>0.9729693648953736</v>
+        <v>1.020797866424255</v>
       </c>
       <c r="F19">
-        <v>0.9301101512001085</v>
+        <v>1.013653513118616</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031806554325592</v>
+        <v>1.026951963769996</v>
       </c>
       <c r="J19">
-        <v>0.9913971679122228</v>
+        <v>1.023233908934942</v>
       </c>
       <c r="K19">
-        <v>1.004061166783102</v>
+        <v>1.025773527565459</v>
       </c>
       <c r="L19">
-        <v>0.9872044355860927</v>
+        <v>1.024160389139441</v>
       </c>
       <c r="M19">
-        <v>0.9451834116034835</v>
+        <v>1.017041498333173</v>
       </c>
       <c r="N19">
-        <v>0.9928050656055029</v>
+        <v>1.0246870184522</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9608025010806818</v>
+        <v>1.016632793035049</v>
       </c>
       <c r="D20">
-        <v>0.988620968586023</v>
+        <v>1.022137295911968</v>
       </c>
       <c r="E20">
-        <v>0.9709936139288156</v>
+        <v>1.020419467595024</v>
       </c>
       <c r="F20">
-        <v>0.926736242280536</v>
+        <v>1.013030932949815</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031323337261447</v>
+        <v>1.026892233759637</v>
       </c>
       <c r="J20">
-        <v>0.9899327666134692</v>
+        <v>1.022962207075274</v>
       </c>
       <c r="K20">
-        <v>1.00286689974972</v>
+        <v>1.025559990273647</v>
       </c>
       <c r="L20">
-        <v>0.9855664301932168</v>
+        <v>1.023848355620494</v>
       </c>
       <c r="M20">
-        <v>0.9422024952681677</v>
+        <v>1.016486725123038</v>
       </c>
       <c r="N20">
-        <v>0.9913385846889359</v>
+        <v>1.024414930744726</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9534546774328111</v>
+        <v>1.015339152894993</v>
       </c>
       <c r="D21">
-        <v>0.9835720217662856</v>
+        <v>1.021227824979949</v>
       </c>
       <c r="E21">
-        <v>0.96440685124953</v>
+        <v>1.01918884933531</v>
       </c>
       <c r="F21">
-        <v>0.9154137935035588</v>
+        <v>1.011005239187331</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029693786880925</v>
+        <v>1.026695720478507</v>
       </c>
       <c r="J21">
-        <v>0.9850361123730381</v>
+        <v>1.022077274827472</v>
       </c>
       <c r="K21">
-        <v>0.9988714574792488</v>
+        <v>1.02486382095929</v>
       </c>
       <c r="L21">
-        <v>0.9800954490481261</v>
+        <v>1.022832696347669</v>
       </c>
       <c r="M21">
-        <v>0.9321967990346938</v>
+        <v>1.01468095097081</v>
       </c>
       <c r="N21">
-        <v>0.9864349766378291</v>
+        <v>1.023528741791629</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9486748264860518</v>
+        <v>1.01452503532563</v>
       </c>
       <c r="D22">
-        <v>0.980294663664333</v>
+        <v>1.020655202701902</v>
       </c>
       <c r="E22">
-        <v>0.9601306149602015</v>
+        <v>1.018414784360011</v>
       </c>
       <c r="F22">
-        <v>0.9079978461720847</v>
+        <v>1.00973029732949</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028621727788454</v>
+        <v>1.026570379924387</v>
       </c>
       <c r="J22">
-        <v>0.9818455452796617</v>
+        <v>1.021519641159386</v>
       </c>
       <c r="K22">
-        <v>0.9962668618765715</v>
+        <v>1.02442461729075</v>
       </c>
       <c r="L22">
-        <v>0.9765355437831795</v>
+        <v>1.022193171588926</v>
       </c>
       <c r="M22">
-        <v>0.9256422863464141</v>
+        <v>1.013543884411072</v>
       </c>
       <c r="N22">
-        <v>0.9832398785732169</v>
+        <v>1.022970316219773</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9512246717208532</v>
+        <v>1.014956687174053</v>
       </c>
       <c r="D23">
-        <v>0.9820422765786385</v>
+        <v>1.020958837089969</v>
       </c>
       <c r="E23">
-        <v>0.9624109761010006</v>
+        <v>1.018825162728035</v>
       </c>
       <c r="F23">
-        <v>0.9119591540614321</v>
+        <v>1.010406296115425</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029194728113249</v>
+        <v>1.026636994672732</v>
       </c>
       <c r="J23">
-        <v>0.9835480645152919</v>
+        <v>1.021815371840187</v>
       </c>
       <c r="K23">
-        <v>0.9976567934162969</v>
+        <v>1.024657589649253</v>
       </c>
       <c r="L23">
-        <v>0.9784346799355189</v>
+        <v>1.02253228568674</v>
       </c>
       <c r="M23">
-        <v>0.9291435022033098</v>
+        <v>1.014146830036124</v>
       </c>
       <c r="N23">
-        <v>0.9849448155814435</v>
+        <v>1.023266466872061</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9609231438049159</v>
+        <v>1.016654468554787</v>
       </c>
       <c r="D24">
-        <v>0.9887039705035041</v>
+        <v>1.022152529827865</v>
       </c>
       <c r="E24">
-        <v>0.9711018956849523</v>
+        <v>1.020440093748289</v>
       </c>
       <c r="F24">
-        <v>0.9269214092958128</v>
+        <v>1.013064872697811</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0313498897016</v>
+        <v>1.026895498110704</v>
       </c>
       <c r="J24">
-        <v>0.9900130772875226</v>
+        <v>1.022977022217935</v>
       </c>
       <c r="K24">
-        <v>1.002932404179931</v>
+        <v>1.025571636430127</v>
       </c>
       <c r="L24">
-        <v>0.9856562390831662</v>
+        <v>1.023865367551352</v>
       </c>
       <c r="M24">
-        <v>0.9423661031220557</v>
+        <v>1.016516971055549</v>
       </c>
       <c r="N24">
-        <v>0.9914190094133579</v>
+        <v>1.024429766926589</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9715527098868553</v>
+        <v>1.018621481643824</v>
       </c>
       <c r="D25">
-        <v>0.9960291853721133</v>
+        <v>1.023534300162317</v>
       </c>
       <c r="E25">
-        <v>0.9806599033289422</v>
+        <v>1.022312803142222</v>
       </c>
       <c r="F25">
-        <v>0.9431520578061493</v>
+        <v>1.016144709507044</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033660250313037</v>
+        <v>1.027187721466218</v>
       </c>
       <c r="J25">
-        <v>0.9970768866861376</v>
+        <v>1.024319728844246</v>
       </c>
       <c r="K25">
-        <v>1.008689457466846</v>
+        <v>1.026625882655276</v>
       </c>
       <c r="L25">
-        <v>0.993566057092791</v>
+        <v>1.025408330983802</v>
       </c>
       <c r="M25">
-        <v>0.9567020023402732</v>
+        <v>1.019260318638836</v>
       </c>
       <c r="N25">
-        <v>0.9984928502315493</v>
+        <v>1.025774380350321</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_223/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_223/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020187938760651</v>
+        <v>0.9795941157913162</v>
       </c>
       <c r="D2">
-        <v>1.024633669955879</v>
+        <v>1.00158503983354</v>
       </c>
       <c r="E2">
-        <v>1.023805500138709</v>
+        <v>0.9879144223194689</v>
       </c>
       <c r="F2">
-        <v>1.018597342599396</v>
+        <v>0.9553322672443633</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027414560603013</v>
+        <v>1.035364508478527</v>
       </c>
       <c r="J2">
-        <v>1.025386462933698</v>
+        <v>1.002402777710936</v>
       </c>
       <c r="K2">
-        <v>1.027461597882946</v>
+        <v>1.013022336614648</v>
       </c>
       <c r="L2">
-        <v>1.026635858678833</v>
+        <v>0.9995447363741329</v>
       </c>
       <c r="M2">
-        <v>1.021443085277686</v>
+        <v>0.9674510819567711</v>
       </c>
       <c r="N2">
-        <v>1.026842629324535</v>
+        <v>1.003826304632492</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021323982055728</v>
+        <v>0.985207985787959</v>
       </c>
       <c r="D3">
-        <v>1.025430354192305</v>
+        <v>1.005469748532068</v>
       </c>
       <c r="E3">
-        <v>1.02488881807928</v>
+        <v>0.992991637394142</v>
       </c>
       <c r="F3">
-        <v>1.020376162297516</v>
+        <v>0.9637928568028965</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027575656475209</v>
+        <v>1.036528035455758</v>
       </c>
       <c r="J3">
-        <v>1.026158611915067</v>
+        <v>1.006110182667694</v>
       </c>
       <c r="K3">
-        <v>1.028065443163231</v>
+        <v>1.016033118043129</v>
       </c>
       <c r="L3">
-        <v>1.0275253808059</v>
+        <v>1.003714983955726</v>
       </c>
       <c r="M3">
-        <v>1.023025071810181</v>
+        <v>0.9749109808390221</v>
       </c>
       <c r="N3">
-        <v>1.027615874846024</v>
+        <v>1.007538974529532</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022058477354735</v>
+        <v>0.9887446745124843</v>
       </c>
       <c r="D4">
-        <v>1.025945150521496</v>
+        <v>1.007919225458306</v>
       </c>
       <c r="E4">
-        <v>1.025589576627337</v>
+        <v>0.9961957948308492</v>
       </c>
       <c r="F4">
-        <v>1.021526318380475</v>
+        <v>0.9691071813073209</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027678228622584</v>
+        <v>1.037248558583651</v>
       </c>
       <c r="J4">
-        <v>1.02665715030907</v>
+        <v>1.008440741501773</v>
       </c>
       <c r="K4">
-        <v>1.028454811698976</v>
+        <v>1.017923002860796</v>
       </c>
       <c r="L4">
-        <v>1.028100156471565</v>
+        <v>1.006340351142106</v>
       </c>
       <c r="M4">
-        <v>1.024047445146677</v>
+        <v>0.9795933319288886</v>
       </c>
       <c r="N4">
-        <v>1.02811512122173</v>
+        <v>1.009872843024475</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022367118116987</v>
+        <v>0.9902096635515435</v>
       </c>
       <c r="D5">
-        <v>1.026161401477948</v>
+        <v>1.008934285630544</v>
       </c>
       <c r="E5">
-        <v>1.025884124811332</v>
+        <v>0.9975243308960212</v>
       </c>
       <c r="F5">
-        <v>1.02200964818018</v>
+        <v>0.9713052557106199</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027720951002829</v>
+        <v>1.0375439701685</v>
       </c>
       <c r="J5">
-        <v>1.026866475899014</v>
+        <v>1.009404883297114</v>
       </c>
       <c r="K5">
-        <v>1.028618177825923</v>
+        <v>1.018704138341194</v>
       </c>
       <c r="L5">
-        <v>1.028341601491726</v>
+        <v>1.007427374298113</v>
       </c>
       <c r="M5">
-        <v>1.024476953683914</v>
+        <v>0.9815291464769085</v>
       </c>
       <c r="N5">
-        <v>1.028324744078021</v>
+        <v>1.010838354011755</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022418932066561</v>
+        <v>0.9904543920987536</v>
       </c>
       <c r="D6">
-        <v>1.026197701057487</v>
+        <v>1.009103875169755</v>
       </c>
       <c r="E6">
-        <v>1.025933577834675</v>
+        <v>0.9977463394316819</v>
       </c>
       <c r="F6">
-        <v>1.022090790183684</v>
+        <v>0.9716722700870055</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027728100892114</v>
+        <v>1.037593138393594</v>
       </c>
       <c r="J6">
-        <v>1.026901607396962</v>
+        <v>1.00956587128886</v>
       </c>
       <c r="K6">
-        <v>1.028645588726456</v>
+        <v>1.018834526411891</v>
       </c>
       <c r="L6">
-        <v>1.028382130048764</v>
+        <v>1.007608934485098</v>
       </c>
       <c r="M6">
-        <v>1.024549052879945</v>
+        <v>0.9818523187553769</v>
       </c>
       <c r="N6">
-        <v>1.028359925466726</v>
+        <v>1.010999570624914</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022062601978589</v>
+        <v>0.9887643341516232</v>
       </c>
       <c r="D7">
-        <v>1.025948040741922</v>
+        <v>1.007932845656165</v>
       </c>
       <c r="E7">
-        <v>1.025593512591251</v>
+        <v>0.9962136182711266</v>
       </c>
       <c r="F7">
-        <v>1.021532777414131</v>
+        <v>0.9691366909199448</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027678801048376</v>
+        <v>1.037252535026344</v>
       </c>
       <c r="J7">
-        <v>1.026659948346986</v>
+        <v>1.008453684863974</v>
       </c>
       <c r="K7">
-        <v>1.028456995878492</v>
+        <v>1.017933492235458</v>
       </c>
       <c r="L7">
-        <v>1.028103383418532</v>
+        <v>1.006354940518234</v>
       </c>
       <c r="M7">
-        <v>1.0240531854179</v>
+        <v>0.9796193241412391</v>
       </c>
       <c r="N7">
-        <v>1.02811792323318</v>
+        <v>1.009885804767735</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020571995940502</v>
+        <v>0.9815118962175878</v>
       </c>
       <c r="D8">
-        <v>1.02490306105021</v>
+        <v>1.002911603996069</v>
       </c>
       <c r="E8">
-        <v>1.024171659455372</v>
+        <v>0.9896476763175003</v>
       </c>
       <c r="F8">
-        <v>1.019198686908034</v>
+        <v>0.9582261894100251</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027469349181955</v>
+        <v>1.035764584278892</v>
       </c>
       <c r="J8">
-        <v>1.025647641867842</v>
+        <v>1.003670338479144</v>
       </c>
       <c r="K8">
-        <v>1.027665952442845</v>
+        <v>1.014052279672455</v>
       </c>
       <c r="L8">
-        <v>1.026936644635275</v>
+        <v>1.000969726768703</v>
       </c>
       <c r="M8">
-        <v>1.021977994831621</v>
+        <v>0.9700034093496559</v>
       </c>
       <c r="N8">
-        <v>1.027104179162723</v>
+        <v>1.005095665482381</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017940633590616</v>
+        <v>0.9679430762444126</v>
       </c>
       <c r="D9">
-        <v>1.023056179388646</v>
+        <v>0.9935390764765891</v>
       </c>
       <c r="E9">
-        <v>1.021664387967593</v>
+        <v>0.9774102221807408</v>
       </c>
       <c r="F9">
-        <v>1.015078697447956</v>
+        <v>0.9376582376904248</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027087482582151</v>
+        <v>1.032882463659409</v>
       </c>
       <c r="J9">
-        <v>1.023855368238419</v>
+        <v>0.9946809462300189</v>
       </c>
       <c r="K9">
-        <v>1.026261567901802</v>
+        <v>1.00673785469618</v>
       </c>
       <c r="L9">
-        <v>1.024874450648534</v>
+        <v>0.9908807534737745</v>
       </c>
       <c r="M9">
-        <v>1.018311068447861</v>
+        <v>0.9518508027534065</v>
       </c>
       <c r="N9">
-        <v>1.025309360299169</v>
+        <v>0.9960935072651649</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016183040366555</v>
+        <v>0.9582811656534349</v>
       </c>
       <c r="D10">
-        <v>1.02182116696458</v>
+        <v>0.9868870487483665</v>
       </c>
       <c r="E10">
-        <v>1.019991537887534</v>
+        <v>0.9687316155475939</v>
       </c>
       <c r="F10">
-        <v>1.012326694637258</v>
+        <v>0.9228611175786046</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0268242883484</v>
+        <v>1.030766863623431</v>
       </c>
       <c r="J10">
-        <v>1.022654710536264</v>
+        <v>0.9882536806744325</v>
       </c>
       <c r="K10">
-        <v>1.025318201698461</v>
+        <v>1.001497167741682</v>
       </c>
       <c r="L10">
-        <v>1.02349532509878</v>
+        <v>0.983689351688228</v>
       </c>
       <c r="M10">
-        <v>1.01585906365727</v>
+        <v>0.9387783414983731</v>
       </c>
       <c r="N10">
-        <v>1.024106997525361</v>
+        <v>0.9896571142552718</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015421148261589</v>
+        <v>0.9539292483456719</v>
       </c>
       <c r="D11">
-        <v>1.021285486330238</v>
+        <v>0.9838977278633332</v>
       </c>
       <c r="E11">
-        <v>1.019266827364141</v>
+        <v>0.9648317844090374</v>
       </c>
       <c r="F11">
-        <v>1.011133641296108</v>
+        <v>0.9161478353923027</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026708273687992</v>
+        <v>1.029799734317206</v>
       </c>
       <c r="J11">
-        <v>1.022133407227809</v>
+        <v>0.9853526729188631</v>
       </c>
       <c r="K11">
-        <v>1.024908010140835</v>
+        <v>0.9991298351802161</v>
       </c>
       <c r="L11">
-        <v>1.022897092606284</v>
+        <v>0.9804488601444563</v>
       </c>
       <c r="M11">
-        <v>1.014795444569322</v>
+        <v>0.9328455461334608</v>
       </c>
       <c r="N11">
-        <v>1.023584953906413</v>
+        <v>0.9867519867359394</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015138017479179</v>
+        <v>0.9522853205256657</v>
       </c>
       <c r="D12">
-        <v>1.021086372231881</v>
+        <v>0.982769708932248</v>
       </c>
       <c r="E12">
-        <v>1.018997581428883</v>
+        <v>0.9633600850776328</v>
       </c>
       <c r="F12">
-        <v>1.010690263161104</v>
+        <v>0.913603386983545</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026664872225773</v>
+        <v>1.029432339998518</v>
       </c>
       <c r="J12">
-        <v>1.021939557576338</v>
+        <v>0.9842559273158181</v>
       </c>
       <c r="K12">
-        <v>1.024755388579578</v>
+        <v>0.9982346303605729</v>
       </c>
       <c r="L12">
-        <v>1.022674720270383</v>
+        <v>0.9792246034850303</v>
       </c>
       <c r="M12">
-        <v>1.014400075357693</v>
+        <v>0.9305967316318341</v>
       </c>
       <c r="N12">
-        <v>1.023390828966202</v>
+        <v>0.9856536836283394</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015198755938857</v>
+        <v>0.9526392274765365</v>
       </c>
       <c r="D13">
-        <v>1.0211290891706</v>
+        <v>0.9830124939409244</v>
       </c>
       <c r="E13">
-        <v>1.019055338183173</v>
+        <v>0.963676847586139</v>
       </c>
       <c r="F13">
-        <v>1.010785379651117</v>
+        <v>0.9141515659979598</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026674195952778</v>
+        <v>1.029511525060449</v>
       </c>
       <c r="J13">
-        <v>1.021981148726106</v>
+        <v>0.9844920764644176</v>
       </c>
       <c r="K13">
-        <v>1.024788138130093</v>
+        <v>0.9984273928809949</v>
       </c>
       <c r="L13">
-        <v>1.02272242727091</v>
+        <v>0.9794881701137075</v>
       </c>
       <c r="M13">
-        <v>1.014484896857539</v>
+        <v>0.9310812252463813</v>
       </c>
       <c r="N13">
-        <v>1.023432479180174</v>
+        <v>0.9858901681358165</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015397747257968</v>
+        <v>0.9537939337648731</v>
       </c>
       <c r="D14">
-        <v>1.021269030329615</v>
+        <v>0.9838048535426419</v>
       </c>
       <c r="E14">
-        <v>1.019244572573374</v>
+        <v>0.9647106163165886</v>
       </c>
       <c r="F14">
-        <v>1.011096996180705</v>
+        <v>0.91593857815033</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026704692404766</v>
+        <v>1.029769534876444</v>
       </c>
       <c r="J14">
-        <v>1.02211738794301</v>
+        <v>0.9852624159933713</v>
       </c>
       <c r="K14">
-        <v>1.024895399670423</v>
+        <v>0.9990561681329375</v>
       </c>
       <c r="L14">
-        <v>1.022878714562568</v>
+        <v>0.9803480926440444</v>
       </c>
       <c r="M14">
-        <v>1.014762769280143</v>
+        <v>0.932660605058491</v>
       </c>
       <c r="N14">
-        <v>1.023568911872392</v>
+        <v>0.9866616016352605</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015520335027378</v>
+        <v>0.9545016824824388</v>
       </c>
       <c r="D15">
-        <v>1.021355234306054</v>
+        <v>0.9842906723300685</v>
       </c>
       <c r="E15">
-        <v>1.019361158598693</v>
+        <v>0.9653444328955231</v>
       </c>
       <c r="F15">
-        <v>1.011288963234535</v>
+        <v>0.9170327217144356</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026723441387722</v>
+        <v>1.029927406408286</v>
       </c>
       <c r="J15">
-        <v>1.022201300937905</v>
+        <v>0.9857344589895389</v>
       </c>
       <c r="K15">
-        <v>1.024961452790124</v>
+        <v>0.9994414377150219</v>
       </c>
       <c r="L15">
-        <v>1.022974986756385</v>
+        <v>0.9808751398612359</v>
       </c>
       <c r="M15">
-        <v>1.014933936412393</v>
+        <v>0.9336275998929296</v>
       </c>
       <c r="N15">
-        <v>1.023652944033365</v>
+        <v>0.9871343149866271</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016233586581794</v>
+        <v>0.9585662652552824</v>
       </c>
       <c r="D16">
-        <v>1.021856698985821</v>
+        <v>0.9870830385979532</v>
       </c>
       <c r="E16">
-        <v>1.020039626813253</v>
+        <v>0.9689872949861051</v>
       </c>
       <c r="F16">
-        <v>1.012405842763617</v>
+        <v>0.9232998091345425</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026831944630358</v>
+        <v>1.030829932698845</v>
       </c>
       <c r="J16">
-        <v>1.022689277790365</v>
+        <v>0.9884436051886528</v>
       </c>
       <c r="K16">
-        <v>1.025345388646067</v>
+        <v>1.001652119486203</v>
       </c>
       <c r="L16">
-        <v>1.023535005222472</v>
+        <v>0.9839016154481106</v>
       </c>
       <c r="M16">
-        <v>1.01592961194314</v>
+        <v>0.9391659990415792</v>
       </c>
       <c r="N16">
-        <v>1.024141613868927</v>
+        <v>0.9898473084840868</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016680762351779</v>
+        <v>0.9610693846733852</v>
       </c>
       <c r="D17">
-        <v>1.022171009334034</v>
+        <v>0.9888045882416049</v>
       </c>
       <c r="E17">
-        <v>1.020465114890534</v>
+        <v>0.9712331587158514</v>
       </c>
       <c r="F17">
-        <v>1.013106043730899</v>
+        <v>0.927145834836397</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026899456709335</v>
+        <v>1.031382066827025</v>
       </c>
       <c r="J17">
-        <v>1.022994993386448</v>
+        <v>0.9901104244801388</v>
       </c>
       <c r="K17">
-        <v>1.02558576313733</v>
+        <v>1.003011802970729</v>
       </c>
       <c r="L17">
-        <v>1.023886003851146</v>
+        <v>0.9857651028625289</v>
       </c>
       <c r="M17">
-        <v>1.016553660849913</v>
+        <v>0.9425643972520746</v>
       </c>
       <c r="N17">
-        <v>1.024447763616223</v>
+        <v>0.9915164948501534</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016941511351267</v>
+        <v>0.962513337136938</v>
       </c>
       <c r="D18">
-        <v>1.022354253336047</v>
+        <v>0.9897983214315786</v>
       </c>
       <c r="E18">
-        <v>1.020713260786868</v>
+        <v>0.9725295709156113</v>
       </c>
       <c r="F18">
-        <v>1.013514323108861</v>
+        <v>0.9293599914115449</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026938637618715</v>
+        <v>1.031699226678666</v>
       </c>
       <c r="J18">
-        <v>1.023173176187349</v>
+        <v>0.9910713782706106</v>
       </c>
       <c r="K18">
-        <v>1.025725804845126</v>
+        <v>1.003795503731246</v>
       </c>
       <c r="L18">
-        <v>1.024090633119825</v>
+        <v>0.9868399479643934</v>
       </c>
       <c r="M18">
-        <v>1.016917476876867</v>
+        <v>0.944520661819637</v>
       </c>
       <c r="N18">
-        <v>1.024626199457139</v>
+        <v>0.9924788133052309</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01703040637841</v>
+        <v>0.9630030223328703</v>
       </c>
       <c r="D19">
-        <v>1.022416719937253</v>
+        <v>0.9901354282873742</v>
       </c>
       <c r="E19">
-        <v>1.020797866424255</v>
+        <v>0.9729693648953733</v>
       </c>
       <c r="F19">
-        <v>1.013653513118616</v>
+        <v>0.9301101512001079</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026951963769996</v>
+        <v>1.031806554325591</v>
       </c>
       <c r="J19">
-        <v>1.023233908934942</v>
+        <v>0.9913971679122223</v>
       </c>
       <c r="K19">
-        <v>1.025773527565459</v>
+        <v>1.004061166783102</v>
       </c>
       <c r="L19">
-        <v>1.024160389139441</v>
+        <v>0.9872044355860924</v>
       </c>
       <c r="M19">
-        <v>1.017041498333173</v>
+        <v>0.9451834116034828</v>
       </c>
       <c r="N19">
-        <v>1.0246870184522</v>
+        <v>0.9928050656055022</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016632793035049</v>
+        <v>0.960802501080682</v>
       </c>
       <c r="D20">
-        <v>1.022137295911968</v>
+        <v>0.9886209685860231</v>
       </c>
       <c r="E20">
-        <v>1.020419467595024</v>
+        <v>0.9709936139288159</v>
       </c>
       <c r="F20">
-        <v>1.013030932949815</v>
+        <v>0.9267362422805364</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026892233759637</v>
+        <v>1.031323337261447</v>
       </c>
       <c r="J20">
-        <v>1.022962207075274</v>
+        <v>0.9899327666134694</v>
       </c>
       <c r="K20">
-        <v>1.025559990273647</v>
+        <v>1.00286689974972</v>
       </c>
       <c r="L20">
-        <v>1.023848355620494</v>
+        <v>0.9855664301932171</v>
       </c>
       <c r="M20">
-        <v>1.016486725123038</v>
+        <v>0.9422024952681679</v>
       </c>
       <c r="N20">
-        <v>1.024414930744726</v>
+        <v>0.991338584688936</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015339152894993</v>
+        <v>0.953454677432811</v>
       </c>
       <c r="D21">
-        <v>1.021227824979949</v>
+        <v>0.9835720217662856</v>
       </c>
       <c r="E21">
-        <v>1.01918884933531</v>
+        <v>0.9644068512495301</v>
       </c>
       <c r="F21">
-        <v>1.011005239187331</v>
+        <v>0.915413793503559</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026695720478507</v>
+        <v>1.029693786880925</v>
       </c>
       <c r="J21">
-        <v>1.022077274827472</v>
+        <v>0.9850361123730381</v>
       </c>
       <c r="K21">
-        <v>1.02486382095929</v>
+        <v>0.9988714574792488</v>
       </c>
       <c r="L21">
-        <v>1.022832696347669</v>
+        <v>0.9800954490481262</v>
       </c>
       <c r="M21">
-        <v>1.01468095097081</v>
+        <v>0.932196799034694</v>
       </c>
       <c r="N21">
-        <v>1.023528741791629</v>
+        <v>0.986434976637829</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01452503532563</v>
+        <v>0.9486748264860523</v>
       </c>
       <c r="D22">
-        <v>1.020655202701902</v>
+        <v>0.9802946636643333</v>
       </c>
       <c r="E22">
-        <v>1.018414784360011</v>
+        <v>0.9601306149602018</v>
       </c>
       <c r="F22">
-        <v>1.00973029732949</v>
+        <v>0.9079978461720847</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026570379924387</v>
+        <v>1.028621727788454</v>
       </c>
       <c r="J22">
-        <v>1.021519641159386</v>
+        <v>0.9818455452796623</v>
       </c>
       <c r="K22">
-        <v>1.02442461729075</v>
+        <v>0.9962668618765718</v>
       </c>
       <c r="L22">
-        <v>1.022193171588926</v>
+        <v>0.9765355437831799</v>
       </c>
       <c r="M22">
-        <v>1.013543884411072</v>
+        <v>0.9256422863464142</v>
       </c>
       <c r="N22">
-        <v>1.022970316219773</v>
+        <v>0.9832398785732176</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.014956687174053</v>
+        <v>0.9512246717208529</v>
       </c>
       <c r="D23">
-        <v>1.020958837089969</v>
+        <v>0.9820422765786381</v>
       </c>
       <c r="E23">
-        <v>1.018825162728035</v>
+        <v>0.9624109761010001</v>
       </c>
       <c r="F23">
-        <v>1.010406296115425</v>
+        <v>0.911959154061431</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026636994672732</v>
+        <v>1.029194728113249</v>
       </c>
       <c r="J23">
-        <v>1.021815371840187</v>
+        <v>0.9835480645152913</v>
       </c>
       <c r="K23">
-        <v>1.024657589649253</v>
+        <v>0.9976567934162962</v>
       </c>
       <c r="L23">
-        <v>1.02253228568674</v>
+        <v>0.9784346799355184</v>
       </c>
       <c r="M23">
-        <v>1.014146830036124</v>
+        <v>0.9291435022033088</v>
       </c>
       <c r="N23">
-        <v>1.023266466872061</v>
+        <v>0.9849448155814431</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016654468554787</v>
+        <v>0.9609231438049156</v>
       </c>
       <c r="D24">
-        <v>1.022152529827865</v>
+        <v>0.9887039705035036</v>
       </c>
       <c r="E24">
-        <v>1.020440093748289</v>
+        <v>0.9711018956849518</v>
       </c>
       <c r="F24">
-        <v>1.013064872697811</v>
+        <v>0.9269214092958117</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026895498110704</v>
+        <v>1.0313498897016</v>
       </c>
       <c r="J24">
-        <v>1.022977022217935</v>
+        <v>0.9900130772875221</v>
       </c>
       <c r="K24">
-        <v>1.025571636430127</v>
+        <v>1.002932404179931</v>
       </c>
       <c r="L24">
-        <v>1.023865367551352</v>
+        <v>0.9856562390831657</v>
       </c>
       <c r="M24">
-        <v>1.016516971055549</v>
+        <v>0.9423661031220546</v>
       </c>
       <c r="N24">
-        <v>1.024429766926589</v>
+        <v>0.9914190094133575</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018621481643824</v>
+        <v>0.9715527098868555</v>
       </c>
       <c r="D25">
-        <v>1.023534300162317</v>
+        <v>0.9960291853721135</v>
       </c>
       <c r="E25">
-        <v>1.022312803142222</v>
+        <v>0.9806599033289424</v>
       </c>
       <c r="F25">
-        <v>1.016144709507044</v>
+        <v>0.9431520578061495</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027187721466218</v>
+        <v>1.033660250313037</v>
       </c>
       <c r="J25">
-        <v>1.024319728844246</v>
+        <v>0.9970768866861377</v>
       </c>
       <c r="K25">
-        <v>1.026625882655276</v>
+        <v>1.008689457466846</v>
       </c>
       <c r="L25">
-        <v>1.025408330983802</v>
+        <v>0.9935660570927912</v>
       </c>
       <c r="M25">
-        <v>1.019260318638836</v>
+        <v>0.9567020023402735</v>
       </c>
       <c r="N25">
-        <v>1.025774380350321</v>
+        <v>0.9984928502315497</v>
       </c>
     </row>
   </sheetData>
